--- a/data/FOREX_4A_historical.xlsx
+++ b/data/FOREX_4A_historical.xlsx
@@ -7318,7 +7318,9 @@
       <c r="CD33" t="n">
         <v>2667.4302675453</v>
       </c>
-      <c r="CE33" t="inlineStr"/>
+      <c r="CE33" t="n">
+        <v>2814.75883788544</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -15229,10 +15231,10 @@
         <v>1.19058795576264</v>
       </c>
       <c r="BO71" t="n">
-        <v>1.18718415584429</v>
+        <v>1.18718415584432</v>
       </c>
       <c r="BP71" t="n">
-        <v>1.17174665142325</v>
+        <v>1.17174665142326</v>
       </c>
       <c r="BQ71" t="n">
         <v>1.11683218894804</v>
@@ -15244,40 +15246,40 @@
         <v>1.10483490400033</v>
       </c>
       <c r="BT71" t="n">
-        <v>1.15085663337996</v>
+        <v>1.15085663337993</v>
       </c>
       <c r="BU71" t="n">
-        <v>1.1341485476028</v>
+        <v>1.13414854760279</v>
       </c>
       <c r="BV71" t="n">
         <v>1.19217095015067</v>
       </c>
       <c r="BW71" t="n">
-        <v>1.14422691444025</v>
+        <v>1.14422691444024</v>
       </c>
       <c r="BX71" t="n">
-        <v>1.14364453038791</v>
+        <v>1.14364453038792</v>
       </c>
       <c r="BY71" t="n">
         <v>1.26101671649041</v>
       </c>
       <c r="BZ71" t="n">
-        <v>1.25572366900827</v>
+        <v>1.25572366900823</v>
       </c>
       <c r="CA71" t="n">
-        <v>1.22736039234729</v>
+        <v>1.22736039234728</v>
       </c>
       <c r="CB71" t="n">
-        <v>1.19888608665569</v>
+        <v>1.19888608665571</v>
       </c>
       <c r="CC71" t="n">
-        <v>1.2342068603033</v>
+        <v>1.23420686030332</v>
       </c>
       <c r="CD71" t="n">
-        <v>1.21947569318481</v>
+        <v>1.21947569318483</v>
       </c>
       <c r="CE71" t="n">
-        <v>1.20441359258427</v>
+        <v>1.20441359258429</v>
       </c>
     </row>
     <row r="72">
@@ -16805,7 +16807,9 @@
       <c r="CD78" t="n">
         <v>71.7356528647599</v>
       </c>
-      <c r="CE78" t="inlineStr"/>
+      <c r="CE78" t="n">
+        <v>73.34002822910431</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -19998,7 +20002,9 @@
       <c r="CD93" t="n">
         <v>130.247976900817</v>
       </c>
-      <c r="CE93" t="inlineStr"/>
+      <c r="CE93" t="n">
+        <v>127.104102668546</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -23612,37 +23618,37 @@
         <v>106.077900510596</v>
       </c>
       <c r="BQ110" t="n">
-        <v>103.034485321986</v>
+        <v>103.035972229178</v>
       </c>
       <c r="BR110" t="n">
-        <v>109.306486132253</v>
+        <v>109.305674710867</v>
       </c>
       <c r="BS110" t="n">
-        <v>119.197967020731</v>
+        <v>119.199783809707</v>
       </c>
       <c r="BT110" t="n">
-        <v>120.887074723397</v>
+        <v>120.886797610572</v>
       </c>
       <c r="BU110" t="n">
-        <v>140.205559704504</v>
+        <v>140.204144105449</v>
       </c>
       <c r="BV110" t="n">
-        <v>129.473563959927</v>
+        <v>129.472953976551</v>
       </c>
       <c r="BW110" t="n">
-        <v>130.878908688158</v>
+        <v>130.878218097543</v>
       </c>
       <c r="BX110" t="n">
-        <v>133.583525411677</v>
+        <v>133.583014625671</v>
       </c>
       <c r="BY110" t="n">
-        <v>137.363876265311</v>
+        <v>137.362878220919</v>
       </c>
       <c r="BZ110" t="n">
-        <v>141.087181984902</v>
+        <v>141.087463914068</v>
       </c>
       <c r="CA110" t="n">
-        <v>143.381265274098</v>
+        <v>143.380652891812</v>
       </c>
       <c r="CB110" t="n">
         <v>143.425800573444</v>
@@ -25436,10 +25442,10 @@
         <v>19.9628588027295</v>
       </c>
       <c r="CD119" t="n">
-        <v>22.9451789863191</v>
+        <v>22.9255651633509</v>
       </c>
       <c r="CE119" t="n">
-        <v>21.0591291035591</v>
+        <v>21.0523528224917</v>
       </c>
     </row>
     <row r="120">
@@ -29017,7 +29023,9 @@
       <c r="CD136" t="n">
         <v>3918.57624783469</v>
       </c>
-      <c r="CE136" t="inlineStr"/>
+      <c r="CE136" t="n">
+        <v>4058.83586733411</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -29835,7 +29843,9 @@
       <c r="CD140" t="n">
         <v>96.756436410419</v>
       </c>
-      <c r="CE140" t="inlineStr"/>
+      <c r="CE140" t="n">
+        <v>93.2554493423245</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -31854,7 +31864,9 @@
       <c r="CD149" t="n">
         <v>47.8344685103841</v>
       </c>
-      <c r="CE149" t="inlineStr"/>
+      <c r="CE149" t="n">
+        <v>50.1014124047412</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -33769,7 +33781,9 @@
       <c r="CD158" t="n">
         <v>4.81933047871622</v>
       </c>
-      <c r="CE158" t="inlineStr"/>
+      <c r="CE158" t="n">
+        <v>4.99827545949017</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -38362,7 +38376,9 @@
       <c r="CD181" t="n">
         <v>11.4403017909343</v>
       </c>
-      <c r="CE181" t="inlineStr"/>
+      <c r="CE181" t="n">
+        <v>11.438950014442</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -42957,7 +42973,9 @@
       <c r="CD202" t="n">
         <v>3.20301413386498</v>
       </c>
-      <c r="CE202" t="inlineStr"/>
+      <c r="CE202" t="n">
+        <v>3.2238155746006</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -45057,7 +45075,9 @@
       <c r="CD212" t="n">
         <v>58.5194901538648</v>
       </c>
-      <c r="CE212" t="inlineStr"/>
+      <c r="CE212" t="n">
+        <v>62.0438625607419</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -45793,7 +45813,9 @@
       <c r="CD216" t="n">
         <v>32326.4811751781</v>
       </c>
-      <c r="CE216" t="inlineStr"/>
+      <c r="CE216" t="n">
+        <v>32991.3072992097</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -46190,7 +46212,7 @@
         <v>326.489394361117</v>
       </c>
       <c r="BY218" t="n">
-        <v>323.474643713531</v>
+        <v>322.962218100336</v>
       </c>
       <c r="BZ218" t="n">
         <v>394.605112456027</v>
@@ -46202,12 +46224,14 @@
         <v>304.247693824715</v>
       </c>
       <c r="CC218" t="n">
-        <v>678.358596152125</v>
+        <v>672.4981655566741</v>
       </c>
       <c r="CD218" t="n">
-        <v>1031.42793006428</v>
-      </c>
-      <c r="CE218" t="inlineStr"/>
+        <v>1034.91843867883</v>
+      </c>
+      <c r="CE218" t="n">
+        <v>1475.03181346558</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -46611,7 +46635,9 @@
       <c r="CD220" t="n">
         <v>25.5511269494777</v>
       </c>
-      <c r="CE220" t="inlineStr"/>
+      <c r="CE220" t="n">
+        <v>28.5165044180526</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -46820,7 +46846,9 @@
       <c r="CD221" t="n">
         <v>71.4951759045445</v>
       </c>
-      <c r="CE221" t="inlineStr"/>
+      <c r="CE221" t="n">
+        <v>126.14371434461</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
